--- a/medicine/Enfance/Luca_D'Andrea/Luca_D'Andrea.xlsx
+++ b/medicine/Enfance/Luca_D'Andrea/Luca_D'Andrea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luca_D%27Andrea</t>
+          <t>Luca_D'Andrea</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luca D'Andrea, né le 15 mai 1979 à Bolzano dans la région du Trentin-Haut-Adige, est un romancier et scénariste italien. Il remporte le prix Scerbanenco en 2017 avec le roman Lissy.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luca_D%27Andrea</t>
+          <t>Luca_D'Andrea</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Luca D'Andrea naît à Bolzano en 1979.
 En 2013, il est scénariste pour la série documentaire Mountain Heroes produite par Discovery Channel.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luca_D%27Andrea</t>
+          <t>Luca_D'Andrea</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,15 +562,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-L'Essence du mal, Denoël, coll. « Sueurs froides » ((it) La sostanza del male, 2016), trad. Anaïs Bouteille-BokobzaRéédition, Gallimard, coll. « Folio policier » no 866, 2018
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Essence du mal, Denoël, coll. « Sueurs froides » ((it) La sostanza del male, 2016), trad. Anaïs Bouteille-BokobzaRéédition, Gallimard, coll. « Folio policier » no 866, 2018
 Au cœur de la folie, Denoël, coll. « Sueurs froides », 2018 ((it) Lissy, 2017), trad. Anaïs Bouteille-BokobzaRéédition, Gallimard, coll. « Folio policier » no 896, 2019
-(it) Beneath the Mountain, 2018
-Littérature d'enfance et de jeunesse
-Série Wunderkind
-(it) Una lucida moneta d'argento, 2009
-(it) La rosa e i tre chiodi, 2010
-(it) Il regno che verrà, 2012</t>
+(it) Beneath the Mountain, 2018</t>
         </is>
       </c>
     </row>
@@ -566,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luca_D%27Andrea</t>
+          <t>Luca_D'Andrea</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +595,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Wunderkind</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(it) Una lucida moneta d'argento, 2009
+(it) La rosa e i tre chiodi, 2010
+(it) Il regno che verrà, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Luca_D'Andrea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Luca_D%27Andrea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix Scerbanenco 2017 pour Lissy.</t>
         </is>
